--- a/static/excel_template/PM checklist.xlsx
+++ b/static/excel_template/PM checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yubl\Desktop\django101\inventorysystem\static\excel_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tonzk\Desktop\django101\inventorysystem\static\excel_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A28C77F-CF8B-4D3B-A119-1300DE1855F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0744CE3E-B524-4F04-A1B6-C01267C93B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A1EFCD10-8C37-4D5D-850D-F123C6BA9FCF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="16800" xr2:uid="{A1EFCD10-8C37-4D5D-850D-F123C6BA9FCF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -339,14 +339,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -356,33 +369,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -700,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4578DACA-8AA9-494C-B70C-9950749132E4}">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,18 +716,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -736,13 +736,13 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -783,8 +783,8 @@
         <v>2</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -794,12 +794,12 @@
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -809,12 +809,12 @@
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -828,8 +828,8 @@
         <v>5</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -868,10 +868,10 @@
       <c r="A13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="16"/>
+      <c r="C13" s="13"/>
       <c r="D13" s="7" t="s">
         <v>11</v>
       </c>
@@ -888,12 +888,12 @@
       <c r="A14" s="5">
         <v>1</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="22"/>
+      <c r="C14" s="21"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="8"/>
+      <c r="E14" s="22"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -905,12 +905,12 @@
       <c r="A15" s="3">
         <v>2</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="24"/>
+      <c r="C15" s="15"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="9"/>
+      <c r="E15" s="23"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -922,12 +922,12 @@
       <c r="A16" s="3">
         <v>3</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="24"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="9"/>
+      <c r="E16" s="23"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -939,101 +939,94 @@
       <c r="A17" s="4">
         <v>4</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="24"/>
+      <c r="C17" s="15"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="10"/>
+      <c r="E17" s="24"/>
     </row>
     <row r="18" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>5</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="24"/>
+      <c r="C18" s="15"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="10"/>
+      <c r="E18" s="24"/>
     </row>
     <row r="19" spans="1:5" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>6</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="24"/>
+      <c r="C19" s="15"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="10"/>
+      <c r="E19" s="24"/>
     </row>
     <row r="20" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>7</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="24"/>
+      <c r="C20" s="15"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="10"/>
+      <c r="E20" s="24"/>
     </row>
     <row r="21" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>8</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="24"/>
+      <c r="C21" s="15"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="10"/>
+      <c r="E21" s="24"/>
     </row>
     <row r="22" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>9</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="24"/>
+      <c r="C22" s="15"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="10"/>
+      <c r="E22" s="24"/>
     </row>
     <row r="23" spans="1:5" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="17"/>
+      <c r="B25" s="8"/>
     </row>
     <row r="26" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B17:C17"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
@@ -1042,6 +1035,13 @@
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B17:C17"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B18:C18"/>
